--- a/dz_Buyanov_2026.01.20_sql_университ/База учебного заведения1.xlsx
+++ b/dz_Buyanov_2026.01.20_sql_университ/База учебного заведения1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{678BD8CE-90D5-4ECC-A338-861E06999598}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -247,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -549,9 +549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,29 +566,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,11 +881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,19 +908,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="K1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="44"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
@@ -937,7 +946,7 @@
       <c r="L2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="45" t="s">
         <v>36</v>
       </c>
       <c r="N2" s="8"/>
@@ -1014,12 +1023,12 @@
       <c r="E5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51"/>
       <c r="K5" s="12">
         <v>3</v>
       </c>
@@ -1054,13 +1063,13 @@
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="12">
         <v>1</v>
       </c>
@@ -1148,14 +1157,14 @@
       <c r="E10" s="12">
         <v>2</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="50" t="s">
+      <c r="L10" s="49"/>
+      <c r="M10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="52"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
@@ -1177,13 +1186,13 @@
       <c r="K11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="41" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="N11" s="42" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1202,12 +1211,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="51"/>
       <c r="K13" s="7">
         <v>2</v>
       </c>
@@ -1222,11 +1231,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="F14" s="4" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1310,7 @@
       <c r="C16" s="30">
         <v>1</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="55">
         <v>1</v>
       </c>
       <c r="F16" s="12">
@@ -1338,7 +1348,7 @@
       <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="56">
         <v>1</v>
       </c>
       <c r="F17" s="12">
@@ -1364,8 +1374,8 @@
       <c r="C18" s="28">
         <v>2</v>
       </c>
-      <c r="D18" s="40">
-        <v>1</v>
+      <c r="D18" s="56">
+        <v>2</v>
       </c>
       <c r="F18" s="26">
         <v>4</v>
@@ -1390,7 +1400,7 @@
       <c r="C19" s="28">
         <v>2</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="56">
         <v>2</v>
       </c>
       <c r="F19" s="16">
@@ -1416,8 +1426,8 @@
       <c r="C20" s="38">
         <v>3</v>
       </c>
-      <c r="D20" s="40">
-        <v>2</v>
+      <c r="D20" s="56">
+        <v>3</v>
       </c>
       <c r="F20" s="18">
         <v>6</v>
@@ -1433,16 +1443,16 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="18">
         <v>6</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="38">
-        <v>2</v>
-      </c>
-      <c r="D21" s="40">
+      <c r="C21" s="37">
+        <v>2</v>
+      </c>
+      <c r="D21" s="57">
         <v>3</v>
       </c>
       <c r="F21" s="16">
@@ -1457,15 +1467,15 @@
       <c r="I21" s="12">
         <v>4</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="55"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="53" t="s">
+      <c r="N21" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="55"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
@@ -1477,7 +1487,7 @@
       <c r="C22" s="38">
         <v>3</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="31">
         <v>3</v>
       </c>
       <c r="F22" s="16">
@@ -1521,7 +1531,7 @@
       <c r="C23" s="38">
         <v>1</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="32">
         <v>3</v>
       </c>
       <c r="F23" s="18">
@@ -1565,7 +1575,7 @@
       <c r="C24" s="37">
         <v>2</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="33"/>
       <c r="K24" s="7">
         <v>2</v>
       </c>
@@ -1606,11 +1616,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
       <c r="K26" s="22"/>
       <c r="L26" s="18"/>
       <c r="M26" s="11"/>
@@ -1667,18 +1677,18 @@
       <c r="C30" s="12">
         <v>3</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="K30" s="50" t="s">
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="51"/>
+      <c r="K30" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="52"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
@@ -1711,7 +1721,7 @@
       <c r="F32" s="15">
         <v>1</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="46">
         <v>1</v>
       </c>
       <c r="H32" s="15">
@@ -1726,11 +1736,11 @@
       <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="F33" s="12">
         <v>2</v>
       </c>
@@ -1814,7 +1824,7 @@
       <c r="F36" s="18">
         <v>5</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <v>8</v>
       </c>
       <c r="H36" s="18">
@@ -1844,15 +1854,15 @@
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -2019,11 +2029,11 @@
       <c r="G49" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
@@ -2072,16 +2082,21 @@
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="44" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="K30:N30"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F13:I13"/>
@@ -2089,11 +2104,6 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
